--- a/meta/10-7-2.xlsx
+++ b/meta/10-7-2.xlsx
@@ -5,18 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Миграционное законодательство КР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14745" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="9240"/>
   </bookViews>
   <sheets>
-    <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
-    <sheet name="10.7.2" sheetId="3" r:id="rId2"/>
-    <sheet name="Босния и Герцоговина" sheetId="6" r:id="rId3"/>
-    <sheet name="Германия" sheetId="7" r:id="rId4"/>
-    <sheet name="Беларусь" sheetId="4" r:id="rId5"/>
+    <sheet name="10.7.2" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -36,33 +32,12 @@
     <t>2. Информация об организации</t>
   </si>
   <si>
-    <t>Пожалуйста, укажите название организации, которая предоставляет эти данные в НСК / национальную платформу данных</t>
-  </si>
-  <si>
-    <t>Пожалуйста, укажите имя координатора для этого индикатора</t>
-  </si>
-  <si>
-    <t>Пожалуйста, укажите адрес электронной почты координатора</t>
-  </si>
-  <si>
-    <t>Пожалуйста, укажите номер телефона координатора</t>
-  </si>
-  <si>
-    <t>Пожалуйста, предоставьте ссылку на сайт организации</t>
-  </si>
-  <si>
     <t>3. Определения и понятия</t>
   </si>
   <si>
-    <t>Точное определение индикатора, включая ссылки на стандарты и классификации, предпочтительно опираясь на согласованные на международном уровне определения. Определение показателя должно быть однозначным и выражаться в универсально применимых терминах. Он должен четко выражать единицу измерения (пропорции, доллары, количество человек и т.д.)</t>
-  </si>
-  <si>
     <t>Основные понятия:</t>
   </si>
   <si>
-    <t>Точное определение всех различных понятий, переменных и терминов, связанных с индикатором, включая ссылку на любые связанные классификации и международные стандарты</t>
-  </si>
-  <si>
     <t>4. Источники данных и методы сбора</t>
   </si>
   <si>
@@ -72,48 +47,27 @@
     <t>Метод расчета:</t>
   </si>
   <si>
-    <t>Объяснение того, как рассчитывается показатель, включая математические формулы и описательную информацию о вычислениях, выполненных на исходных данных для получения показателя (включая корректировки и взвешивание).</t>
-  </si>
-  <si>
     <t>Комментарий и ограничения:</t>
   </si>
   <si>
-    <t>Комментарии о целесообразности, пригодности, актуальности и ограничениях показателя.</t>
-  </si>
-  <si>
     <t>Гарантия качества:</t>
   </si>
   <si>
-    <t>Информация о шагах, предпринятых для обеспечения качества. Например, информация о том, как обрабатываются пропущенные данные, о действующих системах валидации, конкретных рекомендациях или других механизмах, касающихся качества данных.</t>
-  </si>
-  <si>
     <t>6. Доступность данных и дезагрегация</t>
   </si>
   <si>
     <t>Доступность данных и пробелы:</t>
   </si>
   <si>
-    <t>Описание доступности данных, включая периоды времени, за которые данные (не) доступны</t>
-  </si>
-  <si>
     <t>Разбивка:</t>
   </si>
   <si>
-    <t>Уточнение размеров и уровней, используемых для дезагрегации показателя (например, доход, пол, возрастная группа, географическое положение, статус инвалидности и т.д.).</t>
-  </si>
-  <si>
     <t>7. Сопоставимость с международными данными / стандартами</t>
   </si>
   <si>
-    <t>Обсуждение сравнимости этих данных и их отклонения от международно оценочных данных, объяснение источников расхождений, выделение и обобщение основных источников различий.</t>
-  </si>
-  <si>
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>Любые ссылки и документация, которые могут помочь понять данные для этого индикатора</t>
-  </si>
-  <si>
     <t>Электронная почта контактного лица</t>
   </si>
   <si>
@@ -144,19 +98,10 @@
     <t>Обоснование и толкование</t>
   </si>
   <si>
-    <t>Объясните, как этот показатель связан с целью, и каким-либо конкретным образом его следует интерпретировать, например, для определенных пороговых значений. Например, значение, превышающее 20 процентов, указывает на серьезное недоедание, а значение в диапазоне 10-20 указывает на умеренно высокое недоедание</t>
-  </si>
-  <si>
     <t>Источники данных</t>
   </si>
   <si>
-    <t>Описание типа источников (административных, выборочных обследований или переписей) и названия фактического источника данных для расчета этого показателя</t>
-  </si>
-  <si>
     <t>Методы сбора данных</t>
-  </si>
-  <si>
-    <t>Описание методов, используемых для сбора данных. Это описание должно включать, когда это применимо, используемый образец выборки, вопросы, используемые для сбора данных, тип интервью, даты / продолжительность полевых работ, размер выборки, частоту ответов и любые изменения источника данных с течением времени, детали знаменателя (если из другого источника) и любую другую соответствующую информацию, связанную с происхождением источника или индикатора.                                                  Описание механизма сбора данных: например, частота и периоды, когда данные собираются, а также частота и периоды, когда данные передаются в НСУ или национальную платформу отчетности.</t>
   </si>
   <si>
     <t>Цель 10. Сокращение неравенства внутри стран и между ними</t>
@@ -195,15 +140,6 @@
 В рамках сотрудничества по показателю ЦУР 10.7.2 МОМ будет оказывать помощь в получении ответов стран по Модулю III, выполняя последующие меры через своих соответствующих страновых или региональных партнеров. ОЭСР, как партнерское агентство по этому показателю, поддержит эти усилия для своих стран-членов. Региональные комиссии ООН могут при необходимости оказывать дополнительную помощь. Ожидается, что это сотрудничество повысит процент ответов от стран и улучшит качество данных.
 Данные должны собираться раз в два года, чтобы обеспечить наличие достаточной информации для мониторинга прогресса в достижении цели. Это также позволит собирать контрольные данные дважды в течение каждого 4-летнего цикла Политического форума высокого уровня (HLPF). 
 Никаких корректировок к стандартным классификациям не предусмотрено.</t>
-  </si>
-  <si>
-    <t>10.7.2 Наличие миграционной политики, способствующей упорядоченной, безопасной, законной и ответственной миграции и мобильности людей</t>
-  </si>
-  <si>
-    <t>Год</t>
-  </si>
-  <si>
-    <t>Республика</t>
   </si>
   <si>
     <t>ЦУР 10.7.2 направлен на описание состояния национальной миграционной политики и того, как такая политика меняется с течением времени. Собранная информация направлена ​​на выявление как достигнутого прогресса, так и пробелов, тем самым внося вклад в доказательную базу для действенных рекомендаций по выполнению задачи ЦУР 10.7. Индикатор также служит для будущих тематических обзоров на Политическом форуме высокого уровня по устойчивому развитию (ПФВУ).                                                                                             Принципы и цели структуры управления миграцией:
@@ -235,15 +171,6 @@
     </r>
   </si>
   <si>
-    <t>https://sdg-indikatoren.de/en/10-7-2/</t>
-  </si>
-  <si>
-    <t>https://sdg.bhas.gov.ba/10-7-2/</t>
-  </si>
-  <si>
-    <t>https://sdgplatform.belstat.gov.by/datasets/10.7.2</t>
-  </si>
-  <si>
     <t>timuraitbekovich@gmail.com</t>
   </si>
   <si>
@@ -293,28 +220,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -409,12 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Times New Roman"/>
@@ -422,7 +325,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,13 +338,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -464,124 +362,68 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -889,169 +731,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="17868" t="8797" r="19521" b="3692"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="581024" y="0"/>
-          <a:ext cx="11449051" cy="9001125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="18336" t="41117" r="19521" b="3783"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="9010650"/>
-          <a:ext cx="11363325" cy="5667374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="15054" t="7964" r="15405" b="3691"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="628650" y="200026"/>
-          <a:ext cx="12715876" cy="9086850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>45512</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>503159</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="31202" t="35559" r="11967" b="34252"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2912537"/>
-          <a:ext cx="8199359" cy="2450038"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -1345,224 +1024,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
@@ -1571,215 +1032,215 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="80.28515625" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="48.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="394.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="390" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="357" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:2" ht="394.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="29"/>
-    </row>
-    <row r="16" spans="1:2" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" ht="357" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="35"/>
-    </row>
-    <row r="24" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="28" t="s">
-        <v>63</v>
+      <c r="A28" s="5"/>
+      <c r="B28" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="19"/>
-      <c r="K65" s="18"/>
+      <c r="F65" s="10"/>
+      <c r="K65" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1790,121 +1251,4 @@
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="V5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V5" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="V5" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="X7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="7" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X7" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="X7" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="F1" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="27">
-        <v>86.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="27">
-        <v>86.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="27">
-        <v>86.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/meta/10-7-2.xlsx
+++ b/meta/10-7-2.xlsx
@@ -1024,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,29 +1218,21 @@
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="26" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="10"/>
-      <c r="K65" s="9"/>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F63" s="10"/>
+      <c r="K63" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/meta/10-7-2.xlsx
+++ b/meta/10-7-2.xlsx
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
